--- a/ExcelAvanzado-Esumer/ExamenSeccion.xlsx
+++ b/ExcelAvanzado-Esumer/ExamenSeccion.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\EscuelaDeAnalistas\ExcelAvanzado-Esumer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BB7EC1-BBC5-4D62-90AB-971C643B8B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFED63C-7FAF-4E8A-8C4C-C2A5A8B74336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FE74C80F-602B-4F33-8A63-8458CCBA152C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{FE74C80F-602B-4F33-8A63-8458CCBA152C}"/>
   </bookViews>
   <sheets>
     <sheet name="Seccion1" sheetId="1" r:id="rId1"/>
     <sheet name="Seccion2" sheetId="5" r:id="rId2"/>
+    <sheet name="Seccion3" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -681,6 +682,187 @@
         <a:xfrm>
           <a:off x="0" y="37909500"/>
           <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>370381</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>27952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB56073-3B5A-461D-8E4F-A458C0A3FEAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="8752381" cy="4980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>398952</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048D9C11-FFC8-4186-8C12-AC6FA1D28BDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5524500"/>
+          <a:ext cx="8780952" cy="2285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>408476</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>94952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25EDD726-A596-4B8C-B804-1A785B7C9DF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8191500"/>
+          <a:ext cx="8790476" cy="2380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>341809</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>142476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C12A05-58BD-4A54-83CA-C12B8E60706C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10858500"/>
+          <a:ext cx="8723809" cy="3190476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1039,7 +1221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB80356-EA54-4FB3-9EED-7EFC3A8FB45F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+    <sheetView topLeftCell="A229" workbookViewId="0">
       <selection activeCell="A245" sqref="A245"/>
     </sheetView>
   </sheetViews>
@@ -1049,4 +1231,20 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D661C799-6667-4F34-BF61-490CC09252DC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>